--- a/documents/notes.xlsx
+++ b/documents/notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>add user_id to patients</t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>manage samples</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Usermanagement</t>
+  </si>
+  <si>
+    <t>Test Reports</t>
+  </si>
+  <si>
+    <t>patient home page will have accordian of last tests</t>
+  </si>
+  <si>
+    <t>Test management</t>
+  </si>
+  <si>
+    <t>Pending Result reports</t>
+  </si>
+  <si>
+    <t>Sample Management</t>
+  </si>
+  <si>
+    <t>New Test Reports</t>
+  </si>
+  <si>
+    <t>lab_attendand home page will have list of pending tests</t>
   </si>
 </sst>
 </file>
@@ -371,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,6 +465,52 @@
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/documents/notes.xlsx
+++ b/documents/notes.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
